--- a/Doku/Abschätzung.xlsx
+++ b/Doku/Abschätzung.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nick\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nick\Documents\GitHub\ASCET_Projekt\Doku\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFBCA173-D8F7-4B53-8620-6CAA7D4508F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DABD8D81-631E-4B36-B4EF-CEA30FF2D20A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="427" xr2:uid="{3BD75EA3-47ED-4B45-9003-11B3070BA44C}"/>
+    <workbookView xWindow="45" yWindow="1080" windowWidth="14400" windowHeight="11385" tabRatio="427" xr2:uid="{3BD75EA3-47ED-4B45-9003-11B3070BA44C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>Aufgaben [min]</t>
   </si>
@@ -56,67 +56,52 @@
     <t>var</t>
   </si>
   <si>
-    <t>Physikalische Grundlagen auffrischen</t>
-  </si>
-  <si>
-    <t>Konzept überlegen</t>
-  </si>
-  <si>
-    <t>Konzept implementieren</t>
-  </si>
-  <si>
-    <t>Versuchs-Logik implementieren</t>
-  </si>
-  <si>
-    <t>Ergebnisevaluation</t>
-  </si>
-  <si>
     <t>Actual time</t>
   </si>
   <si>
-    <t>Ergebnisdokumentation</t>
-  </si>
-  <si>
-    <t>Sample</t>
-  </si>
-  <si>
-    <t>Total Energy[J]</t>
-  </si>
-  <si>
-    <t>V_end [km/h]</t>
-  </si>
-  <si>
-    <t>Std. Dev.</t>
-  </si>
-  <si>
-    <t>Mean</t>
-  </si>
-  <si>
-    <t>Mode</t>
-  </si>
-  <si>
-    <t>50% ohne Tempomat</t>
-  </si>
-  <si>
-    <t>Tempomat auf 93,2 kmh</t>
-  </si>
-  <si>
-    <t>0g</t>
-  </si>
-  <si>
-    <t>1g</t>
-  </si>
-  <si>
-    <t>Take 1</t>
-  </si>
-  <si>
-    <t>Take 2</t>
-  </si>
-  <si>
-    <t>Take 3</t>
-  </si>
-  <si>
-    <t>Take 4</t>
+    <t>Aufgabe verstehen &amp; erklären</t>
+  </si>
+  <si>
+    <t>Aufgabenplan &amp; Aufgabenabschätzung erstellen</t>
+  </si>
+  <si>
+    <t>Devops einrichten</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Durchführbarkeit theoretisch evaluieren </t>
+  </si>
+  <si>
+    <t>TrafficLight Modul implmentieren</t>
+  </si>
+  <si>
+    <t>Flashlight Modul implmentieren</t>
+  </si>
+  <si>
+    <t>unit tests implementieren</t>
+  </si>
+  <si>
+    <t>Experiement designen &amp; aufsetzen</t>
+  </si>
+  <si>
+    <t>Diskussion gelbphasentiming (*)</t>
+  </si>
+  <si>
+    <t>Diskussion relative timing bei grünphase (*)</t>
+  </si>
+  <si>
+    <t>Disukssion V2X (*)</t>
+  </si>
+  <si>
+    <t>Dokumentation PDF</t>
+  </si>
+  <si>
+    <t>Human-Factor impact (*)</t>
+  </si>
+  <si>
+    <t>Reflect (*)</t>
+  </si>
+  <si>
+    <t>Modulintegration</t>
   </si>
 </sst>
 </file>
@@ -124,9 +109,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -137,12 +122,6 @@
       <b/>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF92D050"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -170,9 +149,9 @@
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -954,15 +933,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{430D41D9-55EE-4ED9-B8A0-34F7167870DA}">
-  <dimension ref="A1:K25"/>
+  <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="26.28515625" customWidth="1"/>
+    <col min="1" max="1" width="41.42578125" customWidth="1"/>
+    <col min="6" max="6" width="6" customWidth="1"/>
+    <col min="7" max="7" width="5.7109375" customWidth="1"/>
     <col min="10" max="10" width="17.140625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -971,7 +952,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -990,11 +971,11 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
-        <v>6</v>
+      <c r="A2" t="s">
+        <v>9</v>
       </c>
       <c r="B2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2">
         <v>3</v>
@@ -1003,28 +984,19 @@
         <v>5</v>
       </c>
       <c r="E2">
-        <v>10</v>
-      </c>
-      <c r="F2">
+        <v>8</v>
+      </c>
+      <c r="F2" s="4">
         <f>(C2+4*D2+E2)/6</f>
-        <v>5.5</v>
-      </c>
-      <c r="G2">
+        <v>5.166666666666667</v>
+      </c>
+      <c r="G2" s="4">
         <f>(E2-C2)^2/36</f>
-        <v>1.3611111111111112</v>
-      </c>
-      <c r="I2" t="s">
-        <v>13</v>
-      </c>
-      <c r="J2" t="s">
-        <v>14</v>
-      </c>
-      <c r="K2" t="s">
-        <v>15</v>
+        <v>0.69444444444444442</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
+      <c r="A3" t="s">
         <v>7</v>
       </c>
       <c r="B3">
@@ -1039,305 +1011,303 @@
       <c r="E3">
         <v>10</v>
       </c>
-      <c r="F3">
-        <f t="shared" ref="F3:F9" si="0">(C3+4*D3+E3)/6</f>
+      <c r="F3" s="4">
+        <f t="shared" ref="F3:F11" si="0">(C3+4*D3+E3)/6</f>
         <v>5.5</v>
       </c>
-      <c r="G3">
-        <f t="shared" ref="G3:G9" si="1">(E3-C3)^2/36</f>
+      <c r="G3" s="4">
+        <f t="shared" ref="G3:G11" si="1">(E3-C3)^2/36</f>
         <v>1.3611111111111112</v>
       </c>
-      <c r="I3">
-        <v>1</v>
-      </c>
-      <c r="J3" s="3">
-        <v>809876.56299999997</v>
-      </c>
-      <c r="K3">
-        <v>87.17</v>
-      </c>
+      <c r="J3" s="2"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
+      <c r="A4" t="s">
         <v>8</v>
       </c>
       <c r="B4">
+        <v>15</v>
+      </c>
+      <c r="C4">
+        <v>10</v>
+      </c>
+      <c r="D4">
         <v>12</v>
       </c>
-      <c r="C4">
-        <v>5</v>
-      </c>
-      <c r="D4">
-        <v>8</v>
-      </c>
       <c r="E4">
-        <v>15</v>
-      </c>
-      <c r="F4">
+        <v>20</v>
+      </c>
+      <c r="F4" s="4">
         <f t="shared" si="0"/>
-        <v>8.6666666666666661</v>
-      </c>
-      <c r="G4">
+        <v>13</v>
+      </c>
+      <c r="G4" s="4">
         <f t="shared" si="1"/>
         <v>2.7777777777777777</v>
       </c>
-      <c r="I4">
-        <v>2</v>
-      </c>
-      <c r="J4" s="3">
-        <v>809510.43799999997</v>
-      </c>
-      <c r="K4">
-        <v>87.18</v>
-      </c>
+      <c r="J4" s="2"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5">
         <v>20</v>
       </c>
-      <c r="C5">
-        <v>7</v>
-      </c>
       <c r="D5">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="E5">
+        <v>45</v>
+      </c>
+      <c r="F5" s="4">
+        <f t="shared" si="0"/>
+        <v>30.833333333333332</v>
+      </c>
+      <c r="G5" s="4">
+        <f t="shared" si="1"/>
+        <v>17.361111111111111</v>
+      </c>
+      <c r="J5" s="2"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6">
+        <v>15</v>
+      </c>
+      <c r="D6">
         <v>17</v>
       </c>
-      <c r="F5">
+      <c r="E6">
+        <v>25</v>
+      </c>
+      <c r="F6" s="4">
         <f t="shared" si="0"/>
-        <v>10.666666666666666</v>
-      </c>
-      <c r="G5">
+        <v>18</v>
+      </c>
+      <c r="G6" s="4">
         <f t="shared" si="1"/>
         <v>2.7777777777777777</v>
       </c>
-      <c r="I5">
-        <v>3</v>
-      </c>
-      <c r="J5" s="3">
-        <v>809875</v>
-      </c>
-      <c r="K5">
-        <v>87.17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
+      <c r="J6" s="2"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>12</v>
       </c>
-      <c r="B6">
+      <c r="C7">
+        <v>10</v>
+      </c>
+      <c r="D7">
         <v>15</v>
       </c>
-      <c r="C6">
+      <c r="E7">
+        <v>22</v>
+      </c>
+      <c r="F7" s="4">
+        <f t="shared" si="0"/>
+        <v>15.333333333333334</v>
+      </c>
+      <c r="G7" s="4">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="J7" s="2"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8">
+        <v>20</v>
+      </c>
+      <c r="D8">
+        <v>30</v>
+      </c>
+      <c r="E8">
+        <v>40</v>
+      </c>
+      <c r="F8" s="4">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="G8" s="4">
+        <f t="shared" si="1"/>
+        <v>11.111111111111111</v>
+      </c>
+      <c r="J8" s="2"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9">
+        <v>30</v>
+      </c>
+      <c r="D9">
+        <v>40</v>
+      </c>
+      <c r="E9">
+        <v>60</v>
+      </c>
+      <c r="F9" s="4">
+        <f t="shared" si="0"/>
+        <v>41.666666666666664</v>
+      </c>
+      <c r="G9" s="4">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="J9" s="2"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10">
+        <v>15</v>
+      </c>
+      <c r="D10">
         <v>10</v>
       </c>
-      <c r="D6">
-        <v>12</v>
-      </c>
-      <c r="E6">
+      <c r="E10">
+        <v>30</v>
+      </c>
+      <c r="F10" s="4">
+        <f t="shared" si="0"/>
+        <v>14.166666666666666</v>
+      </c>
+      <c r="G10" s="4">
+        <f t="shared" si="1"/>
+        <v>6.25</v>
+      </c>
+      <c r="J10" s="2"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>15</v>
       </c>
-      <c r="F6">
+      <c r="C11">
+        <v>20</v>
+      </c>
+      <c r="D11">
+        <v>30</v>
+      </c>
+      <c r="E11">
+        <v>40</v>
+      </c>
+      <c r="F11" s="4">
         <f t="shared" si="0"/>
-        <v>12.166666666666666</v>
-      </c>
-      <c r="G6">
+        <v>30</v>
+      </c>
+      <c r="G11" s="4">
         <f t="shared" si="1"/>
-        <v>0.69444444444444442</v>
-      </c>
-      <c r="I6">
-        <v>4</v>
-      </c>
-      <c r="J6" s="3">
-        <v>809878.5</v>
-      </c>
-      <c r="K6">
-        <v>87.16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7">
-        <v>6</v>
-      </c>
-      <c r="C7">
-        <v>3</v>
-      </c>
-      <c r="D7">
-        <v>8</v>
-      </c>
-      <c r="E7">
-        <v>12</v>
-      </c>
-      <c r="F7">
-        <f t="shared" si="0"/>
-        <v>7.833333333333333</v>
-      </c>
-      <c r="G7">
-        <f t="shared" si="1"/>
-        <v>2.25</v>
-      </c>
-      <c r="I7">
-        <v>5</v>
-      </c>
-      <c r="J7" s="3">
-        <v>809536</v>
-      </c>
-      <c r="K7">
-        <v>87.17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B8">
-        <f>SUM(B2:B7)</f>
-        <v>63</v>
-      </c>
-      <c r="F8">
-        <f>SUM(F2:F7)</f>
-        <v>50.333333333333329</v>
-      </c>
-      <c r="G8">
-        <f>SUM(G2:G7)</f>
-        <v>11.222222222222223</v>
-      </c>
-      <c r="I8">
-        <v>6</v>
-      </c>
-      <c r="J8" s="3">
-        <v>809554.25</v>
-      </c>
-      <c r="K8">
-        <v>87.18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="F9" s="1">
-        <f>F8+2*(G8^0.5)</f>
-        <v>57.033250414080591</v>
-      </c>
-      <c r="I9">
-        <v>7</v>
-      </c>
-      <c r="J9" s="3">
-        <v>809876.56299999997</v>
-      </c>
-      <c r="K9">
-        <v>87.16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="I10">
-        <v>9</v>
-      </c>
-      <c r="J10" s="3">
-        <v>809876.625</v>
-      </c>
-      <c r="K10">
-        <v>87.16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="I11">
-        <v>11</v>
-      </c>
-      <c r="J11" s="3">
-        <v>809874.93799999997</v>
-      </c>
-      <c r="K11">
-        <v>87.16</v>
-      </c>
+        <v>11.111111111111111</v>
+      </c>
+      <c r="J11" s="2"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="I12" s="1" t="s">
+      <c r="A12" t="s">
         <v>16</v>
       </c>
-      <c r="J12" s="4">
-        <f>_xlfn.STDEV.P(J3:J11)</f>
-        <v>161.93411255892386</v>
-      </c>
-      <c r="K12" s="4">
-        <f>_xlfn.STDEV.P(K3:K11)</f>
-        <v>7.8567420131878795E-3</v>
-      </c>
+      <c r="C12">
+        <v>20</v>
+      </c>
+      <c r="D12">
+        <v>30</v>
+      </c>
+      <c r="E12">
+        <v>40</v>
+      </c>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="I13" s="1" t="s">
+      <c r="A13" t="s">
         <v>17</v>
       </c>
-      <c r="J13" s="4">
-        <f>AVERAGE(J3:J11)</f>
-        <v>809762.09744444443</v>
-      </c>
-      <c r="K13" s="4">
-        <f>AVERAGE(K3:K11)</f>
-        <v>87.167777777777772</v>
-      </c>
+      <c r="C13">
+        <v>20</v>
+      </c>
+      <c r="D13">
+        <v>30</v>
+      </c>
+      <c r="E13">
+        <v>40</v>
+      </c>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14">
+        <v>100</v>
+      </c>
+      <c r="D14">
+        <v>120</v>
+      </c>
+      <c r="E14">
+        <v>160</v>
+      </c>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>18</v>
-      </c>
-      <c r="B15" t="s">
-        <v>21</v>
-      </c>
-      <c r="C15" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="C15">
+        <v>20</v>
+      </c>
+      <c r="D15">
+        <v>30</v>
+      </c>
+      <c r="E15">
+        <v>40</v>
+      </c>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>26</v>
+      <c r="C16">
+        <v>30</v>
+      </c>
+      <c r="D16">
+        <v>45</v>
+      </c>
+      <c r="E16">
+        <v>50</v>
+      </c>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+    </row>
+    <row r="17" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F17">
+        <f>SUM(F2:F16)</f>
+        <v>203.66666666666666</v>
+      </c>
+      <c r="G17">
+        <f>SUM(G2:G16)</f>
+        <v>82.444444444444443</v>
+      </c>
+    </row>
+    <row r="18" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F18" s="1">
+        <f>F17+2*(G17^0.5)</f>
+        <v>221.82645129583497</v>
       </c>
     </row>
   </sheetData>

--- a/Doku/Abschätzung.xlsx
+++ b/Doku/Abschätzung.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nick\Documents\GitHub\ASCET_Projekt\Doku\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DABD8D81-631E-4B36-B4EF-CEA30FF2D20A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46DE2609-B716-4FAF-8B91-DB607BB6EC92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="45" yWindow="1080" windowWidth="14400" windowHeight="11385" tabRatio="427" xr2:uid="{3BD75EA3-47ED-4B45-9003-11B3070BA44C}"/>
+    <workbookView xWindow="3330" yWindow="2205" windowWidth="19710" windowHeight="12510" tabRatio="427" xr2:uid="{3BD75EA3-47ED-4B45-9003-11B3070BA44C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -936,7 +936,7 @@
   <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1050,6 +1050,9 @@
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>10</v>
+      </c>
+      <c r="B5">
+        <v>25</v>
       </c>
       <c r="C5">
         <v>20</v>

--- a/Doku/Abschätzung.xlsx
+++ b/Doku/Abschätzung.xlsx
@@ -8,14 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nick\Documents\GitHub\ASCET_Projekt\Doku\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46DE2609-B716-4FAF-8B91-DB607BB6EC92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BFE1351-7A16-4F13-80DA-4A25B132A3F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3330" yWindow="2205" windowWidth="19710" windowHeight="12510" tabRatio="427" xr2:uid="{3BD75EA3-47ED-4B45-9003-11B3070BA44C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="332" xr2:uid="{3BD75EA3-47ED-4B45-9003-11B3070BA44C}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" r:id="rId1"/>
-    <sheet name="Concept" sheetId="3" r:id="rId2"/>
-    <sheet name="Measurements" sheetId="2" r:id="rId3"/>
+    <sheet name="Abschaetzung" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -71,12 +69,6 @@
     <t xml:space="preserve">Durchführbarkeit theoretisch evaluieren </t>
   </si>
   <si>
-    <t>TrafficLight Modul implmentieren</t>
-  </si>
-  <si>
-    <t>Flashlight Modul implmentieren</t>
-  </si>
-  <si>
     <t>unit tests implementieren</t>
   </si>
   <si>
@@ -102,6 +94,12 @@
   </si>
   <si>
     <t>Modulintegration</t>
+  </si>
+  <si>
+    <t>Flashlight Modul implementieren</t>
+  </si>
+  <si>
+    <t>TrafficLight Modul implementieren</t>
   </si>
 </sst>
 </file>
@@ -167,473 +165,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Grafik 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F3C1DC8C-4764-41DE-8E27-7FBC49CE43C0}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="200025" y="66675"/>
-          <a:ext cx="9991725" cy="6343650"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>34738</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>506909</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>107714</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Grafik 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F4BB3BE-9EBA-41D0-B0D3-275EC872B65B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="358588"/>
-          <a:ext cx="2030909" cy="396826"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>537883</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>50987</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>290624</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>91701</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Grafik 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8AA006F4-29E2-4CE3-8F94-1FF7DA0C8B43}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2061883" y="212912"/>
-          <a:ext cx="2800741" cy="3117289"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>287852</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>56031</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>145382</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>139311</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Grafik 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA011855-A3C1-49F1-BC91-4341D03F271E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4859852" y="56031"/>
-          <a:ext cx="2905530" cy="4455255"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>174742</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>56030</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>44361</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>76477</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Grafik 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E8A032F8-E0D2-4371-89BA-CA838309A791}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7794742" y="56030"/>
-          <a:ext cx="2917619" cy="4392422"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>437031</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>56029</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>294561</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>37609</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Grafik 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{87C36DE1-BE78-4839-AA55-CA672B3F76C7}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11105031" y="56029"/>
-          <a:ext cx="2905530" cy="4515480"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>336177</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>78441</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>146076</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>60021</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="Grafik 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F9E56655-B660-431D-A74E-27BE734E44B7}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="14052177" y="78441"/>
-          <a:ext cx="2857899" cy="4515480"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>145677</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>12734</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>19685</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="Grafik 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1351FE92-1169-4F48-8C65-832EF6DF1FB0}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="16909677" y="0"/>
-          <a:ext cx="2915057" cy="4553585"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>347383</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>185861</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>48259</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="Grafik 8">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AAFF8883-EC19-4600-9420-EE198B369A46}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4919383" y="4572000"/>
-          <a:ext cx="2886478" cy="4544059"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>201707</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>82924</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>33220</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>54978</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="10" name="Grafik 9">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B0EA502F-48D7-44D7-8EFA-F3947AB4CA6E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7821707" y="4616824"/>
-          <a:ext cx="2879513" cy="4505954"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -936,14 +467,14 @@
   <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="41.42578125" customWidth="1"/>
-    <col min="6" max="6" width="6" customWidth="1"/>
-    <col min="7" max="7" width="5.7109375" customWidth="1"/>
+    <col min="6" max="6" width="6.5703125" customWidth="1"/>
+    <col min="7" max="7" width="6.85546875" customWidth="1"/>
     <col min="10" max="10" width="17.140625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -975,24 +506,24 @@
         <v>9</v>
       </c>
       <c r="B2">
+        <v>35</v>
+      </c>
+      <c r="C2">
         <v>5</v>
       </c>
-      <c r="C2">
-        <v>3</v>
-      </c>
       <c r="D2">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E2">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="F2" s="4">
         <f>(C2+4*D2+E2)/6</f>
-        <v>5.166666666666667</v>
+        <v>11.666666666666666</v>
       </c>
       <c r="G2" s="4">
         <f>(E2-C2)^2/36</f>
-        <v>0.69444444444444442</v>
+        <v>11.111111111111111</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
@@ -1000,24 +531,24 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D3">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E3">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F3" s="4">
         <f t="shared" ref="F3:F11" si="0">(C3+4*D3+E3)/6</f>
-        <v>5.5</v>
+        <v>10.833333333333334</v>
       </c>
       <c r="G3" s="4">
         <f t="shared" ref="G3:G11" si="1">(E3-C3)^2/36</f>
-        <v>1.3611111111111112</v>
+        <v>6.25</v>
       </c>
       <c r="J3" s="2"/>
     </row>
@@ -1075,76 +606,85 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>21</v>
+      </c>
+      <c r="B6">
+        <v>125</v>
       </c>
       <c r="C6">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="D6">
-        <v>17</v>
+        <v>100</v>
       </c>
       <c r="E6">
-        <v>25</v>
+        <v>150</v>
       </c>
       <c r="F6" s="4">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>101.66666666666667</v>
       </c>
       <c r="G6" s="4">
         <f t="shared" si="1"/>
-        <v>2.7777777777777777</v>
+        <v>225</v>
       </c>
       <c r="J6" s="2"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>20</v>
+      </c>
+      <c r="B7">
+        <v>50</v>
       </c>
       <c r="C7">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D7">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="E7">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="F7" s="4">
         <f t="shared" si="0"/>
-        <v>15.333333333333334</v>
+        <v>33.333333333333336</v>
       </c>
       <c r="G7" s="4">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="J7" s="2"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>19</v>
+      </c>
+      <c r="B8">
+        <v>60</v>
       </c>
       <c r="C8">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D8">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="E8">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="F8" s="4">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>51.666666666666664</v>
       </c>
       <c r="G8" s="4">
         <f t="shared" si="1"/>
-        <v>11.111111111111111</v>
+        <v>136.11111111111111</v>
       </c>
       <c r="J8" s="2"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C9">
         <v>30</v>
@@ -1167,7 +707,7 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C10">
         <v>15</v>
@@ -1190,7 +730,7 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C11">
         <v>20</v>
@@ -1213,7 +753,7 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C12">
         <v>20</v>
@@ -1232,7 +772,7 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C13">
         <v>20</v>
@@ -1251,7 +791,7 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C14">
         <v>100</v>
@@ -1267,7 +807,7 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C15">
         <v>20</v>
@@ -1283,7 +823,7 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C16">
         <v>30</v>
@@ -1300,51 +840,21 @@
     <row r="17" spans="6:7" x14ac:dyDescent="0.2">
       <c r="F17">
         <f>SUM(F2:F16)</f>
-        <v>203.66666666666666</v>
+        <v>338.83333333333337</v>
       </c>
       <c r="G17">
         <f>SUM(G2:G16)</f>
-        <v>82.444444444444443</v>
+        <v>465.97222222222217</v>
       </c>
     </row>
     <row r="18" spans="6:7" x14ac:dyDescent="0.2">
       <c r="F18" s="1">
         <f>F17+2*(G17^0.5)</f>
-        <v>221.82645129583497</v>
+        <v>382.00611282329544</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A3917C7-F0E4-40A4-9914-A032803F34F8}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q18" sqref="Q18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEF250D1-1E2F-4DB2-B757-0E25CF1B5063}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
 </file>
--- a/Doku/Abschätzung.xlsx
+++ b/Doku/Abschätzung.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nick\Documents\GitHub\ASCET_Projekt\Doku\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BFE1351-7A16-4F13-80DA-4A25B132A3F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E1A0A84-6795-4DAA-BA7F-460BF6F66E17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="332" xr2:uid="{3BD75EA3-47ED-4B45-9003-11B3070BA44C}"/>
   </bookViews>
@@ -467,7 +467,7 @@
   <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -506,7 +506,7 @@
         <v>9</v>
       </c>
       <c r="B2">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C2">
         <v>5</v>
@@ -543,11 +543,11 @@
         <v>20</v>
       </c>
       <c r="F3" s="4">
-        <f t="shared" ref="F3:F11" si="0">(C3+4*D3+E3)/6</f>
+        <f t="shared" ref="F3:F16" si="0">(C3+4*D3+E3)/6</f>
         <v>10.833333333333334</v>
       </c>
       <c r="G3" s="4">
-        <f t="shared" ref="G3:G11" si="1">(E3-C3)^2/36</f>
+        <f t="shared" ref="G3:G16" si="1">(E3-C3)^2/36</f>
         <v>6.25</v>
       </c>
       <c r="J3" s="2"/>
@@ -557,7 +557,7 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C4">
         <v>10</v>
@@ -583,7 +583,7 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C5">
         <v>20</v>
@@ -609,7 +609,7 @@
         <v>21</v>
       </c>
       <c r="B6">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="C6">
         <v>60</v>
@@ -635,7 +635,7 @@
         <v>20</v>
       </c>
       <c r="B7">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C7">
         <v>15</v>
@@ -661,7 +661,7 @@
         <v>19</v>
       </c>
       <c r="B8">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="C8">
         <v>30</v>
@@ -686,18 +686,21 @@
       <c r="A9" t="s">
         <v>11</v>
       </c>
+      <c r="B9">
+        <v>116</v>
+      </c>
       <c r="C9">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="D9">
-        <v>40</v>
+        <v>150</v>
       </c>
       <c r="E9">
         <v>60</v>
       </c>
       <c r="F9" s="4">
         <f t="shared" si="0"/>
-        <v>41.666666666666664</v>
+        <v>125</v>
       </c>
       <c r="G9" s="4">
         <f t="shared" si="1"/>
@@ -709,22 +712,25 @@
       <c r="A10" t="s">
         <v>12</v>
       </c>
+      <c r="B10">
+        <v>30</v>
+      </c>
       <c r="C10">
+        <v>10</v>
+      </c>
+      <c r="D10">
         <v>15</v>
       </c>
-      <c r="D10">
-        <v>10</v>
-      </c>
       <c r="E10">
         <v>30</v>
       </c>
       <c r="F10" s="4">
         <f t="shared" si="0"/>
-        <v>14.166666666666666</v>
+        <v>16.666666666666668</v>
       </c>
       <c r="G10" s="4">
         <f t="shared" si="1"/>
-        <v>6.25</v>
+        <v>11.111111111111111</v>
       </c>
       <c r="J10" s="2"/>
     </row>
@@ -764,8 +770,14 @@
       <c r="E12">
         <v>40</v>
       </c>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
+      <c r="F12" s="4">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="G12" s="4">
+        <f t="shared" si="1"/>
+        <v>11.111111111111111</v>
+      </c>
       <c r="I12" s="1"/>
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
@@ -783,8 +795,14 @@
       <c r="E13">
         <v>40</v>
       </c>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
+      <c r="F13" s="4">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="G13" s="4">
+        <f t="shared" si="1"/>
+        <v>11.111111111111111</v>
+      </c>
       <c r="I13" s="1"/>
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
@@ -802,8 +820,14 @@
       <c r="E14">
         <v>160</v>
       </c>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
+      <c r="F14" s="4">
+        <f t="shared" si="0"/>
+        <v>123.33333333333333</v>
+      </c>
+      <c r="G14" s="4">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
@@ -818,8 +842,14 @@
       <c r="E15">
         <v>40</v>
       </c>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
+      <c r="F15" s="4">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="G15" s="4">
+        <f t="shared" si="1"/>
+        <v>11.111111111111111</v>
+      </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
@@ -834,23 +864,29 @@
       <c r="E16">
         <v>50</v>
       </c>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
+      <c r="F16" s="4">
+        <f t="shared" si="0"/>
+        <v>43.333333333333336</v>
+      </c>
+      <c r="G16" s="4">
+        <f t="shared" si="1"/>
+        <v>11.111111111111111</v>
+      </c>
     </row>
     <row r="17" spans="6:7" x14ac:dyDescent="0.2">
       <c r="F17">
         <f>SUM(F2:F16)</f>
-        <v>338.83333333333337</v>
+        <v>681.33333333333337</v>
       </c>
       <c r="G17">
         <f>SUM(G2:G16)</f>
-        <v>465.97222222222217</v>
+        <v>615.2777777777776</v>
       </c>
     </row>
     <row r="18" spans="6:7" x14ac:dyDescent="0.2">
       <c r="F18" s="1">
         <f>F17+2*(G17^0.5)</f>
-        <v>382.00611282329544</v>
+        <v>730.94292022045738</v>
       </c>
     </row>
   </sheetData>

--- a/Doku/Abschätzung.xlsx
+++ b/Doku/Abschätzung.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nick\Documents\GitHub\ASCET_Projekt\Doku\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E1A0A84-6795-4DAA-BA7F-460BF6F66E17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92D2E8FE-4CAB-4B84-894E-2D00B12E0EC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="332" xr2:uid="{3BD75EA3-47ED-4B45-9003-11B3070BA44C}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Aufgaben [min]</t>
   </si>
@@ -100,6 +100,12 @@
   </si>
   <si>
     <t>TrafficLight Modul implementieren</t>
+  </si>
+  <si>
+    <t>Total time</t>
+  </si>
+  <si>
+    <t>2-Sigma Range</t>
   </si>
 </sst>
 </file>
@@ -109,7 +115,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -123,16 +129,38 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -140,18 +168,39 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1"/>
+    <xf numFmtId="2" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Ausgabe" xfId="1" builtinId="21"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -466,315 +515,321 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{430D41D9-55EE-4ED9-B8A0-34F7167870DA}">
   <dimension ref="A1:K18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="41.42578125" customWidth="1"/>
-    <col min="6" max="6" width="6.5703125" customWidth="1"/>
-    <col min="7" max="7" width="6.85546875" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" customWidth="1"/>
+    <col min="4" max="4" width="12" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" customWidth="1"/>
+    <col min="6" max="6" width="8.140625" customWidth="1"/>
+    <col min="7" max="7" width="8" customWidth="1"/>
     <col min="10" max="10" width="17.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+    <row r="2" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="4">
         <v>38</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="4">
         <v>5</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="4">
         <v>10</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="4">
         <v>25</v>
       </c>
-      <c r="F2" s="4">
+      <c r="F2" s="5">
         <f>(C2+4*D2+E2)/6</f>
         <v>11.666666666666666</v>
       </c>
-      <c r="G2" s="4">
+      <c r="G2" s="5">
         <f>(E2-C2)^2/36</f>
         <v>11.111111111111111</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+    <row r="3" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="4">
         <v>8</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="4">
         <v>5</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="4">
         <v>10</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="4">
         <v>20</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3" s="5">
         <f t="shared" ref="F3:F16" si="0">(C3+4*D3+E3)/6</f>
         <v>10.833333333333334</v>
       </c>
-      <c r="G3" s="4">
+      <c r="G3" s="5">
         <f t="shared" ref="G3:G16" si="1">(E3-C3)^2/36</f>
         <v>6.25</v>
       </c>
       <c r="J3" s="2"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+    <row r="4" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="4">
         <v>18</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="4">
         <v>10</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="4">
         <v>12</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="4">
         <v>20</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="5">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="G4" s="4">
+      <c r="G4" s="5">
         <f t="shared" si="1"/>
         <v>2.7777777777777777</v>
       </c>
       <c r="J4" s="2"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+    <row r="5" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="4">
         <v>29</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="4">
         <v>20</v>
       </c>
-      <c r="D5">
-        <v>30</v>
-      </c>
-      <c r="E5">
+      <c r="D5" s="4">
+        <v>30</v>
+      </c>
+      <c r="E5" s="4">
         <v>45</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="5">
         <f t="shared" si="0"/>
         <v>30.833333333333332</v>
       </c>
-      <c r="G5" s="4">
+      <c r="G5" s="5">
         <f t="shared" si="1"/>
         <v>17.361111111111111</v>
       </c>
       <c r="J5" s="2"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+    <row r="6" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="4">
         <v>131</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="4">
         <v>60</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="4">
         <v>100</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="4">
         <v>150</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="5">
         <f t="shared" si="0"/>
         <v>101.66666666666667</v>
       </c>
-      <c r="G6" s="4">
+      <c r="G6" s="5">
         <f t="shared" si="1"/>
         <v>225</v>
       </c>
       <c r="J6" s="2"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+    <row r="7" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="4">
         <v>48</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="4">
         <v>15</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="4">
         <v>35</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="4">
         <v>45</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7" s="5">
         <f t="shared" si="0"/>
         <v>33.333333333333336</v>
       </c>
-      <c r="G7" s="4">
+      <c r="G7" s="5">
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
       <c r="J7" s="2"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+    <row r="8" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="4">
         <v>72</v>
       </c>
-      <c r="C8">
-        <v>30</v>
-      </c>
-      <c r="D8">
+      <c r="C8" s="4">
+        <v>30</v>
+      </c>
+      <c r="D8" s="4">
         <v>45</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="4">
         <v>100</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8" s="5">
         <f t="shared" si="0"/>
         <v>51.666666666666664</v>
       </c>
-      <c r="G8" s="4">
+      <c r="G8" s="5">
         <f t="shared" si="1"/>
         <v>136.11111111111111</v>
       </c>
       <c r="J8" s="2"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+    <row r="9" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="4">
         <v>116</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="4">
         <v>90</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="4">
         <v>150</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="4">
         <v>60</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F9" s="5">
         <f t="shared" si="0"/>
         <v>125</v>
       </c>
-      <c r="G9" s="4">
+      <c r="G9" s="5">
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
       <c r="J9" s="2"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+    <row r="10" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B10">
-        <v>30</v>
-      </c>
-      <c r="C10">
+      <c r="B10" s="4">
+        <v>30</v>
+      </c>
+      <c r="C10" s="4">
         <v>10</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="4">
         <v>15</v>
       </c>
-      <c r="E10">
-        <v>30</v>
-      </c>
-      <c r="F10" s="4">
+      <c r="E10" s="4">
+        <v>30</v>
+      </c>
+      <c r="F10" s="5">
         <f t="shared" si="0"/>
         <v>16.666666666666668</v>
       </c>
-      <c r="G10" s="4">
+      <c r="G10" s="5">
         <f t="shared" si="1"/>
         <v>11.111111111111111</v>
       </c>
       <c r="J10" s="2"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+    <row r="11" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C11">
+      <c r="B11" s="4"/>
+      <c r="C11" s="4">
         <v>20</v>
       </c>
-      <c r="D11">
-        <v>30</v>
-      </c>
-      <c r="E11">
+      <c r="D11" s="4">
+        <v>30</v>
+      </c>
+      <c r="E11" s="4">
         <v>40</v>
       </c>
-      <c r="F11" s="4">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="G11" s="4">
+      <c r="F11" s="5">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="G11" s="5">
         <f t="shared" si="1"/>
         <v>11.111111111111111</v>
       </c>
       <c r="J11" s="2"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+    <row r="12" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C12">
+      <c r="B12" s="4"/>
+      <c r="C12" s="4">
         <v>20</v>
       </c>
-      <c r="D12">
-        <v>30</v>
-      </c>
-      <c r="E12">
+      <c r="D12" s="4">
+        <v>30</v>
+      </c>
+      <c r="E12" s="4">
         <v>40</v>
       </c>
-      <c r="F12" s="4">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="G12" s="4">
+      <c r="F12" s="5">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="G12" s="5">
         <f t="shared" si="1"/>
         <v>11.111111111111111</v>
       </c>
@@ -782,24 +837,25 @@
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+    <row r="13" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C13">
+      <c r="B13" s="4"/>
+      <c r="C13" s="4">
         <v>20</v>
       </c>
-      <c r="D13">
-        <v>30</v>
-      </c>
-      <c r="E13">
+      <c r="D13" s="4">
+        <v>30</v>
+      </c>
+      <c r="E13" s="4">
         <v>40</v>
       </c>
-      <c r="F13" s="4">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="G13" s="4">
+      <c r="F13" s="5">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="G13" s="5">
         <f t="shared" si="1"/>
         <v>11.111111111111111</v>
       </c>
@@ -807,84 +863,107 @@
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+    <row r="14" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C14">
+      <c r="B14" s="4">
+        <v>172</v>
+      </c>
+      <c r="C14" s="4">
         <v>100</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="4">
         <v>120</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="4">
         <v>160</v>
       </c>
-      <c r="F14" s="4">
+      <c r="F14" s="5">
         <f t="shared" si="0"/>
         <v>123.33333333333333</v>
       </c>
-      <c r="G14" s="4">
+      <c r="G14" s="5">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+    <row r="15" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C15">
+      <c r="B15" s="4"/>
+      <c r="C15" s="4">
         <v>20</v>
       </c>
-      <c r="D15">
-        <v>30</v>
-      </c>
-      <c r="E15">
+      <c r="D15" s="4">
+        <v>30</v>
+      </c>
+      <c r="E15" s="4">
         <v>40</v>
       </c>
-      <c r="F15" s="4">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="G15" s="4">
+      <c r="F15" s="5">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="G15" s="5">
         <f t="shared" si="1"/>
         <v>11.111111111111111</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+    <row r="16" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C16">
-        <v>30</v>
-      </c>
-      <c r="D16">
+      <c r="B16" s="4"/>
+      <c r="C16" s="4">
+        <v>30</v>
+      </c>
+      <c r="D16" s="4">
         <v>45</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="4">
         <v>50</v>
       </c>
-      <c r="F16" s="4">
+      <c r="F16" s="5">
         <f t="shared" si="0"/>
         <v>43.333333333333336</v>
       </c>
-      <c r="G16" s="4">
+      <c r="G16" s="5">
         <f t="shared" si="1"/>
         <v>11.111111111111111</v>
       </c>
     </row>
-    <row r="17" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F17">
+    <row r="17" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A17" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" s="4">
+        <f>SUM(B2:B16)</f>
+        <v>662</v>
+      </c>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="5">
         <f>SUM(F2:F16)</f>
         <v>681.33333333333337</v>
       </c>
-      <c r="G17">
+      <c r="G17" s="5">
         <f>SUM(G2:G16)</f>
         <v>615.2777777777776</v>
       </c>
     </row>
-    <row r="18" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F18" s="1">
+    <row r="18" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="D18" s="6"/>
+      <c r="E18" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F18" s="5">
+        <f>F17-2*(G17^0.5)</f>
+        <v>631.72374644620936</v>
+      </c>
+      <c r="G18" s="5">
         <f>F17+2*(G17^0.5)</f>
         <v>730.94292022045738</v>
       </c>

--- a/Doku/Abschätzung.xlsx
+++ b/Doku/Abschätzung.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nick\Documents\GitHub\ASCET_Projekt\Doku\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\harte\Dokumente\git\ASCET_Projekt\Doku\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92D2E8FE-4CAB-4B84-894E-2D00B12E0EC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5C38C53-080B-4FF6-8CF7-377B93ABEC07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="332" xr2:uid="{3BD75EA3-47ED-4B45-9003-11B3070BA44C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="332" xr2:uid="{3BD75EA3-47ED-4B45-9003-11B3070BA44C}"/>
   </bookViews>
   <sheets>
     <sheet name="Abschaetzung" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>Aufgaben [min]</t>
   </si>
@@ -76,9 +76,6 @@
   </si>
   <si>
     <t>Diskussion gelbphasentiming (*)</t>
-  </si>
-  <si>
-    <t>Diskussion relative timing bei grünphase (*)</t>
   </si>
   <si>
     <t>Disukssion V2X (*)</t>
@@ -200,8 +197,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Ausgabe" xfId="1" builtinId="21"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Output" xfId="1" builtinId="21"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -217,7 +214,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -513,13 +510,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{430D41D9-55EE-4ED9-B8A0-34F7167870DA}">
-  <dimension ref="A1:K18"/>
+  <dimension ref="A1:K17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="41.42578125" customWidth="1"/>
     <col min="2" max="2" width="11.7109375" customWidth="1"/>
@@ -596,11 +593,11 @@
         <v>20</v>
       </c>
       <c r="F3" s="5">
-        <f t="shared" ref="F3:F16" si="0">(C3+4*D3+E3)/6</f>
+        <f t="shared" ref="F3:F15" si="0">(C3+4*D3+E3)/6</f>
         <v>10.833333333333334</v>
       </c>
       <c r="G3" s="5">
-        <f t="shared" ref="G3:G16" si="1">(E3-C3)^2/36</f>
+        <f t="shared" ref="G3:G15" si="1">(E3-C3)^2/36</f>
         <v>6.25</v>
       </c>
       <c r="J3" s="2"/>
@@ -659,7 +656,7 @@
     </row>
     <row r="6" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" s="4">
         <v>131</v>
@@ -685,7 +682,7 @@
     </row>
     <row r="7" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B7" s="4">
         <v>48</v>
@@ -711,7 +708,7 @@
     </row>
     <row r="8" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B8" s="4">
         <v>72</v>
@@ -791,23 +788,25 @@
       <c r="A11" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="4"/>
+      <c r="B11" s="4">
+        <v>43</v>
+      </c>
       <c r="C11" s="4">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D11" s="4">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="E11" s="4">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="F11" s="5">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="G11" s="5">
         <f t="shared" si="1"/>
-        <v>11.111111111111111</v>
+        <v>25</v>
       </c>
       <c r="J11" s="2"/>
     </row>
@@ -815,23 +814,25 @@
       <c r="A12" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="4"/>
+      <c r="B12" s="4">
+        <v>18</v>
+      </c>
       <c r="C12" s="4">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D12" s="4">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E12" s="4">
         <v>40</v>
       </c>
       <c r="F12" s="5">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>25.833333333333332</v>
       </c>
       <c r="G12" s="5">
         <f t="shared" si="1"/>
-        <v>11.111111111111111</v>
+        <v>17.361111111111111</v>
       </c>
       <c r="I12" s="1"/>
       <c r="J12" s="3"/>
@@ -841,66 +842,67 @@
       <c r="A13" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="4"/>
+      <c r="B13" s="4">
+        <v>172</v>
+      </c>
       <c r="C13" s="4">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="D13" s="4">
-        <v>30</v>
+        <v>120</v>
       </c>
       <c r="E13" s="4">
-        <v>40</v>
+        <v>160</v>
       </c>
       <c r="F13" s="5">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>123.33333333333333</v>
       </c>
       <c r="G13" s="5">
         <f t="shared" si="1"/>
-        <v>11.111111111111111</v>
-      </c>
-      <c r="I13" s="1"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
+        <v>100</v>
+      </c>
     </row>
     <row r="14" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>16</v>
       </c>
       <c r="B14" s="4">
-        <v>172</v>
+        <v>13</v>
       </c>
       <c r="C14" s="4">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="D14" s="4">
-        <v>120</v>
+        <v>15</v>
       </c>
       <c r="E14" s="4">
-        <v>160</v>
+        <v>20</v>
       </c>
       <c r="F14" s="5">
         <f t="shared" si="0"/>
-        <v>123.33333333333333</v>
+        <v>15</v>
       </c>
       <c r="G14" s="5">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>2.7777777777777777</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="4"/>
+      <c r="B15" s="4">
+        <v>21</v>
+      </c>
       <c r="C15" s="4">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D15" s="4">
         <v>30</v>
       </c>
       <c r="E15" s="4">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="F15" s="5">
         <f t="shared" si="0"/>
@@ -908,64 +910,41 @@
       </c>
       <c r="G15" s="5">
         <f t="shared" si="1"/>
-        <v>11.111111111111111</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4">
-        <v>30</v>
-      </c>
-      <c r="D16" s="4">
-        <v>45</v>
-      </c>
-      <c r="E16" s="4">
-        <v>50</v>
-      </c>
+      <c r="A16" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="4">
+        <f>SUM(B2:B15)</f>
+        <v>757</v>
+      </c>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
       <c r="F16" s="5">
-        <f t="shared" si="0"/>
-        <v>43.333333333333336</v>
+        <f>SUM(F2:F15)</f>
+        <v>633.83333333333337</v>
       </c>
       <c r="G16" s="5">
-        <f t="shared" si="1"/>
-        <v>11.111111111111111</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A17" s="6" t="s">
+        <f>SUM(G2:G15)</f>
+        <v>629.86111111111109</v>
+      </c>
+    </row>
+    <row r="17" spans="4:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="D17" s="6"/>
+      <c r="E17" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B17" s="4">
-        <f>SUM(B2:B16)</f>
-        <v>662</v>
-      </c>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
       <c r="F17" s="5">
-        <f>SUM(F2:F16)</f>
-        <v>681.33333333333337</v>
+        <f>F16-2*(G16^0.5)</f>
+        <v>583.63926551208135</v>
       </c>
       <c r="G17" s="5">
-        <f>SUM(G2:G16)</f>
-        <v>615.2777777777776</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="D18" s="6"/>
-      <c r="E18" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="F18" s="5">
-        <f>F17-2*(G17^0.5)</f>
-        <v>631.72374644620936</v>
-      </c>
-      <c r="G18" s="5">
-        <f>F17+2*(G17^0.5)</f>
-        <v>730.94292022045738</v>
+        <f>F16+2*(G16^0.5)</f>
+        <v>684.02740115458539</v>
       </c>
     </row>
   </sheetData>

--- a/Doku/Abschätzung.xlsx
+++ b/Doku/Abschätzung.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\harte\Dokumente\git\ASCET_Projekt\Doku\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nick\Documents\GitHub\ASCET_Projekt\Doku\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5C38C53-080B-4FF6-8CF7-377B93ABEC07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B122991-4BD3-4C35-9CF9-1E0FC7F55779}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="332" xr2:uid="{3BD75EA3-47ED-4B45-9003-11B3070BA44C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="332" xr2:uid="{3BD75EA3-47ED-4B45-9003-11B3070BA44C}"/>
   </bookViews>
   <sheets>
     <sheet name="Abschaetzung" sheetId="1" r:id="rId1"/>
@@ -197,8 +197,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Output" xfId="1" builtinId="21"/>
+    <cellStyle name="Ausgabe" xfId="1" builtinId="21"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -214,7 +214,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -513,10 +513,10 @@
   <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="41.42578125" customWidth="1"/>
     <col min="2" max="2" width="11.7109375" customWidth="1"/>
@@ -843,7 +843,8 @@
         <v>15</v>
       </c>
       <c r="B13" s="4">
-        <v>172</v>
+        <f>172+84</f>
+        <v>256</v>
       </c>
       <c r="C13" s="4">
         <v>100</v>
@@ -919,7 +920,7 @@
       </c>
       <c r="B16" s="4">
         <f>SUM(B2:B15)</f>
-        <v>757</v>
+        <v>841</v>
       </c>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
